--- a/07-julio/6-portal-cliente/DETALLE.xlsx
+++ b/07-julio/6-portal-cliente/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0B1B8C-3A2A-41A6-B1A6-FBABC3DA9A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD24CB58-559C-43D9-9A47-08C1BF437616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28620" yWindow="1005" windowWidth="16665" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -561,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,6 +643,66 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,71 +712,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1038,7 +1074,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1055,32 +1091,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1133,12 +1169,12 @@
       <c r="E4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="27"/>
-      <c r="K4" s="36"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A5" s="20" t="s">
@@ -1156,12 +1192,12 @@
       <c r="E5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="28"/>
-      <c r="K5" s="38"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A6" s="29" t="s">
@@ -1179,12 +1215,12 @@
       <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="41"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A7" s="30" t="s">
@@ -1202,12 +1238,12 @@
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="43"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="22" t="s">
@@ -1225,12 +1261,12 @@
       <c r="E8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="46"/>
+      <c r="K8" s="65"/>
     </row>
     <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A9" s="20" t="s">
@@ -1248,12 +1284,12 @@
       <c r="E9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="38"/>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="22" t="s">
@@ -1271,12 +1307,12 @@
       <c r="E10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="46"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A11" s="16"/>
@@ -1284,7 +1320,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="50"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -1338,19 +1374,19 @@
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="50" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1370,12 +1406,12 @@
       <c r="E15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="27"/>
-      <c r="K15" s="36"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A16" s="20" t="s">
@@ -1393,12 +1429,12 @@
       <c r="E16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
-      <c r="K16" s="38"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A17" s="29" t="s">
@@ -1416,12 +1452,12 @@
       <c r="E17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="41"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A18" s="30" t="s">
@@ -1439,14 +1475,14 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="43"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="22" t="s">
@@ -1464,12 +1500,12 @@
       <c r="E19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="46"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A20" s="20" t="s">
@@ -1487,12 +1523,12 @@
       <c r="E20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="38"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="22" t="s">
@@ -1510,12 +1546,12 @@
       <c r="E21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="46"/>
+      <c r="K21" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1552,10 +1588,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1588,10 +1624,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1624,8 +1660,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1644,10 +1680,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/07-julio/6-portal-cliente/DETALLE.xlsx
+++ b/07-julio/6-portal-cliente/DETALLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD24CB58-559C-43D9-9A47-08C1BF437616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B5C6CA-FFF0-4DD2-9480-FEEDA0A164C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28620" yWindow="1005" windowWidth="16665" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19035" yWindow="1035" windowWidth="16950" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -703,6 +703,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,42 +746,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1091,32 +1091,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1170,11 +1170,11 @@
         <v>12</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="54"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="32"/>
-      <c r="I4" s="54"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="27"/>
-      <c r="K4" s="61"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A5" s="20" t="s">
@@ -1193,11 +1193,11 @@
         <v>14</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="55"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="55"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="28"/>
-      <c r="K5" s="62"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A6" s="29" t="s">
@@ -1216,11 +1216,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="56"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="56"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="63"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A7" s="30" t="s">
@@ -1239,11 +1239,11 @@
         <v>14</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="56"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="56"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="64"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="22" t="s">
@@ -1262,11 +1262,11 @@
         <v>14</v>
       </c>
       <c r="F8" s="41"/>
-      <c r="G8" s="57"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="57"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="65"/>
+      <c r="K8" s="62"/>
     </row>
     <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A9" s="20" t="s">
@@ -1285,11 +1285,11 @@
         <v>14</v>
       </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="58"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="60"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="62"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="22" t="s">
@@ -1308,11 +1308,11 @@
         <v>12</v>
       </c>
       <c r="F10" s="41"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="57"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="65"/>
+      <c r="K10" s="62"/>
     </row>
     <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A11" s="16"/>
@@ -1328,32 +1328,32 @@
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1588,10 +1588,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1624,10 +1624,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1660,8 +1660,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1680,10 +1680,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/07-julio/6-portal-cliente/DETALLE.xlsx
+++ b/07-julio/6-portal-cliente/DETALLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B5C6CA-FFF0-4DD2-9480-FEEDA0A164C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD6D95A-F7E4-4DA7-AE39-3D32564CB246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19035" yWindow="1035" windowWidth="16950" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>

--- a/07-julio/6-portal-cliente/DETALLE.xlsx
+++ b/07-julio/6-portal-cliente/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD6D95A-F7E4-4DA7-AE39-3D32564CB246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F2F02-168B-41B6-AFF8-CB0C52B47D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19035" yWindow="1035" windowWidth="16950" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20415" yWindow="915" windowWidth="16860" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="51"/>
-      <c r="H4" s="32"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="27"/>
       <c r="K4" s="58"/>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="52"/>
-      <c r="H5" s="28"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="28"/>
       <c r="K5" s="59"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="53"/>
-      <c r="H6" s="37"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="53"/>
       <c r="J6" s="19"/>
       <c r="K6" s="60"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="53"/>
-      <c r="H7" s="37"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="15"/>
       <c r="K7" s="61"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="54"/>
-      <c r="H8" s="42"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="54"/>
       <c r="J8" s="24"/>
       <c r="K8" s="62"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="55"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="28"/>
       <c r="K9" s="59"/>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="56"/>
-      <c r="H10" s="42"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="54"/>
       <c r="J10" s="24"/>
       <c r="K10" s="62"/>

--- a/07-julio/6-portal-cliente/DETALLE.xlsx
+++ b/07-julio/6-portal-cliente/DETALLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F2F02-168B-41B6-AFF8-CB0C52B47D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE794C9-2FBB-4667-8B69-A5C076A32A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20415" yWindow="915" windowWidth="16860" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="480" windowWidth="12000" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
